--- a/resources/groups.xlsx
+++ b/resources/groups.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jens-\Documents\GitHub\edm_conference\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jens.klenke\Documents\GitHub\edm_conference\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF834EB7-6A7A-482C-9FCE-ABC5DAC8A420}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6C1FB3-21BE-4D02-A77D-ED9C3190D08C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="19020" xr2:uid="{B4F12FF6-397E-4C49-8E23-7325B4976B04}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Comparison group</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Duration</t>
-  </si>
-  <si>
-    <t>60 + 10</t>
   </si>
   <si>
     <t>18/19</t>
@@ -103,7 +100,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -119,7 +116,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -418,10 +415,10 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
@@ -436,10 +433,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -458,10 +455,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -490,11 +487,11 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
+      <c r="B7">
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/resources/groups.xlsx
+++ b/resources/groups.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jens.klenke\Documents\GitHub\edm_conference\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jens-\Documents\GitHub\edm_conference\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6C1FB3-21BE-4D02-A77D-ED9C3190D08C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A60CB2-A127-4D99-8B37-5B941878F5B6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="19020" xr2:uid="{B4F12FF6-397E-4C49-8E23-7325B4976B04}"/>
   </bookViews>
@@ -100,7 +100,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -415,10 +415,10 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
@@ -488,10 +488,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C7">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/resources/groups.xlsx
+++ b/resources/groups.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jens-\Documents\GitHub\edm_conference\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jens.klenke\Documents\GitHub\edm_conference\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A60CB2-A127-4D99-8B37-5B941878F5B6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57089E24-C923-4926-B3F2-FEF20E3B044C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="19020" xr2:uid="{B4F12FF6-397E-4C49-8E23-7325B4976B04}"/>
   </bookViews>
@@ -57,10 +57,10 @@
     <t>20/21</t>
   </si>
   <si>
-    <t>proctocred</t>
-  </si>
-  <si>
-    <t>unprocotored</t>
+    <t>proctored</t>
+  </si>
+  <si>
+    <t>unproctored</t>
   </si>
 </sst>
 </file>
@@ -100,7 +100,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -415,10 +415,10 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
